--- a/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
+++ b/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
+++ b/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
+++ b/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
+++ b/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
+++ b/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
+++ b/Sufficient data/forecast_summary_B09J6BWK2Z.xlsx
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -783,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1020,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1054,16 +1054,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4</v>
-      </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1100,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
